--- a/tut05/output/0501CS14.xlsx
+++ b/tut05/output/0501CS14.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="C6" t="n">
-        <v>7.318181818181818</v>
+        <v>7.32</v>
       </c>
       <c r="D6" t="n">
-        <v>7.604651162790698</v>
+        <v>7.6</v>
       </c>
       <c r="E6" t="n">
-        <v>7.148936170212766</v>
+        <v>7.15</v>
       </c>
       <c r="F6" t="n">
-        <v>7.880952380952381</v>
+        <v>7.88</v>
       </c>
       <c r="G6" t="n">
         <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>7.463414634146342</v>
+        <v>7.46</v>
       </c>
       <c r="I6" t="n">
         <v>8.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="C8" t="n">
-        <v>7.602150537634409</v>
+        <v>7.6</v>
       </c>
       <c r="D8" t="n">
-        <v>7.602941176470588</v>
+        <v>7.6</v>
       </c>
       <c r="E8" t="n">
-        <v>7.486338797814208</v>
+        <v>7.49</v>
       </c>
       <c r="F8" t="n">
         <v>7.56</v>
       </c>
       <c r="G8" t="n">
-        <v>7.550943396226415</v>
+        <v>7.55</v>
       </c>
       <c r="H8" t="n">
-        <v>7.53921568627451</v>
+        <v>7.54</v>
       </c>
       <c r="I8" t="n">
-        <v>7.638728323699422</v>
+        <v>7.64</v>
       </c>
     </row>
   </sheetData>
